--- a/Scheduale.xlsx
+++ b/Scheduale.xlsx
@@ -1275,7 +1275,7 @@
       <c r="H24" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-2
+26
 محمد عامر
 11:00-14:00</t>
         </is>
@@ -1288,7 +1288,7 @@
       <c r="N24" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-2
+25
 محمد عامر
 14:00-17:00</t>
         </is>
@@ -1303,7 +1303,7 @@
       <c r="B25" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-2
+27
 عيسى بنورة
 8:00-11:00</t>
         </is>
@@ -1316,7 +1316,7 @@
       <c r="H25" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-26
+27
 لم يحدد
 11:00-14:00</t>
         </is>
@@ -1329,7 +1329,7 @@
       <c r="N25" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-25
+26
 عيسى بنورة
 14:00-17:00</t>
         </is>
@@ -1351,7 +1351,7 @@
       <c r="B27" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-13 / 14
+28 / 29
 يوسف ساعد
 8:00-10:00</t>
         </is>
@@ -1362,7 +1362,7 @@
       <c r="F27" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-7 / 8
+30 / 2
 يوسف ساعد
 10:00-12:00</t>
         </is>
@@ -1373,7 +1373,7 @@
       <c r="J27" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-9 / 10
+8 / 9
 يوسف ساعد
 12:00-14:00</t>
         </is>
@@ -1384,7 +1384,7 @@
       <c r="N27" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-9 / 10
+8 / 9
 يوسف ساعد
 14:00-16:00</t>
         </is>
@@ -1397,7 +1397,7 @@
       <c r="F28" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-13 / 14
+28 / 29
 رينا عابد
 10:00-12:00</t>
         </is>
@@ -1408,7 +1408,7 @@
       <c r="J28" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-7 / 8
+2 / 7
 رينا عابد
 12:00-14:00</t>
         </is>
@@ -1419,7 +1419,7 @@
       <c r="N28" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-7 / 8
+2 / 7
 رينا عابد
 14:00-16:00</t>
         </is>
@@ -1432,7 +1432,7 @@
       <c r="F29" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-9 / 10
+13 / 14
 لم يحدد
 10:00-12:00</t>
         </is>
@@ -1443,7 +1443,7 @@
       <c r="J29" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-11 / 12
+10 / 11
 لم يحدد
 12:00-14:00</t>
         </is>
@@ -1454,7 +1454,7 @@
       <c r="N29" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-11 / 12
+10 / 11
 لم يحدد
 14:00-16:00</t>
         </is>
@@ -1467,7 +1467,7 @@
       <c r="F30" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-11 / 12
+7 / 8
 محمود حساسنة
 10:00-12:00</t>
         </is>
@@ -1478,7 +1478,7 @@
       <c r="J30" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-13 / 14
+12 / 13
 محمود حساسنة
 12:00-14:00</t>
         </is>
@@ -1489,7 +1489,7 @@
       <c r="N30" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-13 / 14
+12 / 13
 محمود حساسنة
 14:00-16:00</t>
         </is>
@@ -1502,7 +1502,7 @@
       <c r="F31" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-17 / 18
+9 / 10
 وائل حسن
 10:00-12:00</t>
         </is>
@@ -1513,7 +1513,7 @@
       <c r="J31" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-17 / 18
+14 / 28
 وائل حسن
 12:00-14:00</t>
         </is>
@@ -1524,7 +1524,7 @@
       <c r="N31" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-17 / 18
+14 / 28
 وائل حسن
 14:00-16:00</t>
         </is>
@@ -1537,7 +1537,7 @@
       <c r="F32" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-19 / 20
+11 / 12
 حسن حشاش
 10:00-12:00</t>
         </is>
@@ -1548,7 +1548,7 @@
       <c r="J32" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-19 / 20
+29 / 30
 حسن حشاش
 12:00-14:00</t>
         </is>
@@ -1559,7 +1559,7 @@
       <c r="N32" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-19 / 20
+29 / 30
 حسن حشاش
 14:00-16:00</t>
         </is>
@@ -1579,7 +1579,7 @@
       <c r="B34" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-21 / 22
+17 / 18
 لم يحدد
 9:00-11:00</t>
         </is>
@@ -1592,7 +1592,7 @@
       <c r="L34" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-6 / 15
+1 / 3
 علي الشواهين
 13:00-15:00</t>
         </is>
@@ -1603,7 +1603,7 @@
       <c r="P34" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-21 / 22
+23 / 24
 علي الشواهين
 15:00-17:00</t>
         </is>
@@ -1616,7 +1616,7 @@
       <c r="F35" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-23 / 24
+19 / 20
 ابتهال بشتاوي
 10:00-12:00</t>
         </is>
@@ -1627,7 +1627,7 @@
       <c r="J35" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 3
+19 / 20
 ابتهال بشتاوي
 12:00-14:00</t>
         </is>
@@ -1638,7 +1638,7 @@
       <c r="N35" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 3
+19 / 20
 ابتهال بشتاوي
 14:00-16:00</t>
         </is>
@@ -1651,7 +1651,7 @@
       <c r="F36" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-1 / 3
+21 / 22
 ميس عوده
 10:00-12:00</t>
         </is>
@@ -1662,7 +1662,7 @@
       <c r="J36" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-23 / 24
+21 / 22
 ساري دار ديك
 12:00-14:00</t>
         </is>
@@ -1673,7 +1673,7 @@
       <c r="N36" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-23 / 24
+21 / 22
 ساري دار ديك
 14:00-16:00</t>
         </is>
@@ -1686,7 +1686,7 @@
       <c r="H37" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-21 / 22
+17 / 18
 حسني علي
 11:00-13:00</t>
         </is>
@@ -1697,7 +1697,7 @@
       <c r="L37" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-4 / 5
+17 / 18
 حسني علي
 13:00-15:00</t>
         </is>
@@ -1708,7 +1708,7 @@
       <c r="P37" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-4 / 5
+1 / 3
 حسني علي
 15:00-17:00</t>
         </is>
@@ -1721,7 +1721,7 @@
       <c r="H38" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-4 / 5
+23 / 24
 عمر خليل
 11:00-13:00</t>
         </is>
@@ -1732,7 +1732,7 @@
       <c r="L38" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-21 / 22
+23 / 24
 عمر خليل
 13:00-15:00</t>
         </is>
@@ -1743,7 +1743,7 @@
       <c r="P38" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-6 / 15
+17 / 18
 عمر خليل
 15:00-17:00</t>
         </is>
@@ -1770,7 +1770,7 @@
       <c r="B42" s="2" t="inlineStr">
         <is>
           <t>مختبر تقويم الأسنان 1
-26
+27
 عبير هموز
 8:00-10:00</t>
         </is>
@@ -1781,7 +1781,7 @@
       <c r="F42" s="2" t="inlineStr">
         <is>
           <t>مختبر تقويم الأسنان 1
-2
+25
 دينا بكر
 10:00-12:00</t>
         </is>
@@ -1792,7 +1792,7 @@
       <c r="J42" s="2" t="inlineStr">
         <is>
           <t>مختبر تقويم الأسنان 1
-2
+25
 دينا بكر
 12:00-14:00</t>
         </is>
@@ -1827,7 +1827,7 @@
       <c r="F43" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-25
+26
 لم يحدد
 10:00-12:00</t>
         </is>
@@ -1838,7 +1838,7 @@
       <c r="J43" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-25
+26
 لم يحدد
 12:00-14:00</t>
         </is>
@@ -1849,7 +1849,7 @@
       <c r="N43" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-6
+25
 لم يحدد
 14:00-16:00</t>
         </is>
@@ -1862,7 +1862,7 @@
       <c r="B44" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-2
+26
 مجد برهم
 8:00-10:00</t>
         </is>
@@ -1873,7 +1873,7 @@
       <c r="H44" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-6
+2
 مجد برهم
 11:00-13:00</t>
         </is>
@@ -1884,7 +1884,7 @@
       <c r="P44" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-25
+27
 مجد برهم
 15:00-17:00</t>
         </is>
@@ -1897,7 +1897,7 @@
       <c r="B45" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-16
+30
 ابتهال بشتاوي
 8:00-11:00</t>
         </is>
@@ -1910,7 +1910,7 @@
       <c r="H45" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-16
+27
 ابتهال بشتاوي
 11:00-14:00</t>
         </is>
@@ -1923,7 +1923,7 @@
       <c r="N45" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-16
+26
 ابتهال بشتاوي
 14:00-17:00</t>
         </is>
@@ -1938,7 +1938,7 @@
       <c r="B46" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-6
+2
 نجيب ابو الرب
 8:00-11:00</t>
         </is>
@@ -1960,7 +1960,7 @@
       <c r="B48" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-7 / 8
+4 / 5
 فادي هرش
 8:00-10:00</t>
         </is>
@@ -1971,7 +1971,7 @@
       <c r="F48" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-26 / 11
+16 / 28
 احمد دوايمه
 10:00-12:00</t>
         </is>
@@ -1982,7 +1982,7 @@
       <c r="J48" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-11 / 12
+6 / 7
 فادي هرش
 12:00-14:00</t>
         </is>
@@ -1993,7 +1993,7 @@
       <c r="N48" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-11 / 12
+6 / 7
 فادي هرش
 14:00-16:00</t>
         </is>
@@ -2006,7 +2006,7 @@
       <c r="B49" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-9 / 10
+6 / 15
 عفاف النجاجره
 8:00-10:00</t>
         </is>
@@ -2017,7 +2017,7 @@
       <c r="F49" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-12 / 13
+29 / 13
 عفاف النجاجره
 10:00-12:00</t>
         </is>
@@ -2041,7 +2041,7 @@
       <c r="F50" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-7 / 8
+4 / 5
 غالب فادري
 10:00-12:00</t>
         </is>
@@ -2052,7 +2052,7 @@
       <c r="J50" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-7 / 8
+1 / 3
 غالب فادري
 12:00-14:00</t>
         </is>
@@ -2063,7 +2063,7 @@
       <c r="N50" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-7 / 8
+1 / 3
 غالب فادري
 14:00-16:00</t>
         </is>
@@ -2076,7 +2076,7 @@
       <c r="F51" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-9 / 10
+6 / 15
 اسامه عامودي
 10:00-12:00</t>
         </is>
@@ -2087,7 +2087,7 @@
       <c r="J51" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-9 / 10
+4 / 5
 اسامه عامودي
 12:00-14:00</t>
         </is>
@@ -2098,7 +2098,7 @@
       <c r="N51" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-9 / 10
+4 / 5
 اسامه عامودي
 14:00-16:00</t>
         </is>
@@ -2111,7 +2111,7 @@
       <c r="F52" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-14 / 15
+14 / 1
 علي الشواهين
 10:00-12:00</t>
         </is>
@@ -2122,7 +2122,7 @@
       <c r="J52" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-15 / 17
+15 / 16
 علي الشواهين
 12:00-14:00</t>
         </is>
@@ -2146,7 +2146,7 @@
       <c r="F53" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-17 / 18
+3 / 7
 عبد الرحمن مصطفى
 10:00-12:00</t>
         </is>
@@ -2157,7 +2157,7 @@
       <c r="J53" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-18 / 26
+28 / 29
 عبد الرحمن مصطفى
 12:00-14:00</t>
         </is>
@@ -2168,7 +2168,7 @@
       <c r="N53" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-15 / 17
+15 / 16
 عبد الرحمن مصطفى
 14:00-16:00</t>
         </is>
@@ -2188,7 +2188,7 @@
       <c r="B55" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-19 / 20
+8 / 9
 لم يحدد
 9:00-11:00</t>
         </is>
@@ -2212,7 +2212,7 @@
       <c r="P55" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-21 / 22
+22 / 30
 لم يحدد
 15:00-17:00</t>
         </is>
@@ -2225,7 +2225,7 @@
       <c r="F56" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-23 / 24
+10 / 11
 محمد عامر
 10:00-12:00</t>
         </is>
@@ -2236,7 +2236,7 @@
       <c r="J56" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 3
+10 / 11
 محمد عامر
 12:00-14:00</t>
         </is>
@@ -2247,7 +2247,7 @@
       <c r="N56" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 3
+10 / 11
 محمد عامر
 14:00-16:00</t>
         </is>
@@ -2260,7 +2260,7 @@
       <c r="F57" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-1 / 3
+12 / 19
 عيسى بنورة
 10:00-12:00</t>
         </is>
@@ -2271,7 +2271,7 @@
       <c r="J57" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-23 / 24
+12 / 19
 محمود حساسنة
 12:00-14:00</t>
         </is>
@@ -2282,7 +2282,7 @@
       <c r="N57" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-23 / 24
+12 / 19
 محمود حساسنة
 14:00-16:00</t>
         </is>
@@ -2295,7 +2295,7 @@
       <c r="H58" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-19 / 20
+8 / 9
 حسني علي
 11:00-13:00</t>
         </is>
@@ -2306,7 +2306,7 @@
       <c r="L58" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-4 / 5
+8 / 9
 حسني علي
 13:00-15:00</t>
         </is>
@@ -2317,7 +2317,7 @@
       <c r="P58" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-4 / 5
+8 / 9
 حسني علي
 15:00-17:00</t>
         </is>
@@ -2330,7 +2330,7 @@
       <c r="H59" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-4 / 5
+30 / 20
 سفيان السعيد
 11:00-13:00</t>
         </is>
@@ -2341,7 +2341,7 @@
       <c r="L59" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-19 / 20
+20 / 30
 سفيان السعيد
 13:00-15:00</t>
         </is>
@@ -2352,7 +2352,7 @@
       <c r="P59" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-19 / 20
+20 / 21
 سفيان السعيد
 15:00-17:00</t>
         </is>
@@ -2379,7 +2379,7 @@
       <c r="B63" s="2" t="inlineStr">
         <is>
           <t>مختبر تقويم الأسنان 1
-26
+27
 عبير هموز
 8:00-10:00</t>
         </is>
@@ -2390,7 +2390,7 @@
       <c r="F63" s="2" t="inlineStr">
         <is>
           <t>مختبر تقويم الأسنان 1
-16
+23
 عبير هموز
 10:00-12:00</t>
         </is>
@@ -2401,7 +2401,7 @@
       <c r="J63" s="2" t="inlineStr">
         <is>
           <t>مختبر تقويم الأسنان 1
-16
+23
 دينا بكر
 12:00-14:00</t>
         </is>
@@ -2414,7 +2414,7 @@
       <c r="B64" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-16
+23
 لم يحدد
 8:00-10:00</t>
         </is>
@@ -2425,7 +2425,7 @@
       <c r="F64" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-25
+24
 لم يحدد
 10:00-12:00</t>
         </is>
@@ -2436,7 +2436,7 @@
       <c r="J64" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-25
+24
 لم يحدد
 12:00-14:00</t>
         </is>
@@ -2447,7 +2447,7 @@
       <c r="N64" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-2
+23
 لم يحدد
 14:00-16:00</t>
         </is>
@@ -2460,7 +2460,7 @@
       <c r="B65" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-25
+24
 مجد برهم
 8:00-10:00</t>
         </is>
@@ -2471,7 +2471,7 @@
       <c r="H65" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-2
+27
 مجد برهم
 11:00-13:00</t>
         </is>
@@ -2482,7 +2482,7 @@
       <c r="P65" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-18
+27
 مجد برهم
 15:00-17:00</t>
         </is>
@@ -2495,7 +2495,7 @@
       <c r="B66" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-2
+28
 محمود حساسنة
 8:00-11:00</t>
         </is>
@@ -2508,7 +2508,7 @@
       <c r="H66" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-18
+29
 لم يحدد
 11:00-14:00</t>
         </is>
@@ -2523,7 +2523,7 @@
       <c r="H67" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-26
+28
 عبد الرحمن مصطفى
 11:00-14:00</t>
         </is>
@@ -2536,7 +2536,7 @@
       <c r="N67" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-16
+24
 عبد الرحمن مصطفى
 14:00-17:00</t>
         </is>
@@ -2558,7 +2558,7 @@
       <c r="B69" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-6 / 11
+2 / 16
 يوسف ساعد
 8:00-10:00</t>
         </is>
@@ -2569,7 +2569,7 @@
       <c r="F69" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-12 / 13
+17 / 18
 يوسف ساعد
 10:00-12:00</t>
         </is>
@@ -2580,7 +2580,7 @@
       <c r="J69" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-12 / 13
+5 / 6
 يوسف ساعد
 12:00-14:00</t>
         </is>
@@ -2593,7 +2593,7 @@
       <c r="B70" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-12 / 13
+17 / 18
 احمد دوايمه
 8:00-10:00</t>
         </is>
@@ -2604,7 +2604,7 @@
       <c r="N70" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-12 / 13
+5 / 6
 لم يحدد
 14:00-16:00</t>
         </is>
@@ -2617,7 +2617,7 @@
       <c r="B71" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-14 / 15
+25 / 26
 عيسى بنورة
 8:00-10:00</t>
         </is>
@@ -2628,7 +2628,7 @@
       <c r="F71" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-14 / 15
+25 / 26
 عفاف النجاجره
 10:00-12:00</t>
         </is>
@@ -2639,7 +2639,7 @@
       <c r="J71" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-14 / 15
+16 / 17
 ساري دار ديك
 12:00-14:00</t>
         </is>
@@ -2652,7 +2652,7 @@
       <c r="F72" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-6 / 11
+2 / 16
 رينا عابد
 10:00-12:00</t>
         </is>
@@ -2663,7 +2663,7 @@
       <c r="J72" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-6 / 11
+2 / 4
 رينا عابد
 12:00-14:00</t>
         </is>
@@ -2674,7 +2674,7 @@
       <c r="N72" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-6 / 11
+2 / 4
 رينا عابد
 14:00-16:00</t>
         </is>
@@ -2687,7 +2687,7 @@
       <c r="F73" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-17 / 21
+30 / 4
 وائل حسن
 10:00-12:00</t>
         </is>
@@ -2698,7 +2698,7 @@
       <c r="J73" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-17 / 21
+18 / 25
 وائل حسن
 12:00-14:00</t>
         </is>
@@ -2709,7 +2709,7 @@
       <c r="N73" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-14 / 15
+16 / 17
 وائل حسن
 14:00-16:00</t>
         </is>
@@ -2722,7 +2722,7 @@
       <c r="F74" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-22 / 23
+5 / 6
 حسن حشاش
 10:00-12:00</t>
         </is>
@@ -2733,7 +2733,7 @@
       <c r="J74" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-22 / 23
+26 / 30
 حسن حشاش
 12:00-14:00</t>
         </is>
@@ -2744,7 +2744,7 @@
       <c r="N74" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-17 / 21
+18 / 25
 حسن حشاش
 14:00-16:00</t>
         </is>
@@ -2764,7 +2764,7 @@
       <c r="B76" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-24 / 1
+29 / 13
 ميس عوده
 8:00-10:00</t>
         </is>
@@ -2775,7 +2775,7 @@
       <c r="F76" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-3 / 4
+15 / 21
 ميس عوده
 10:00-12:00</t>
         </is>
@@ -2786,7 +2786,7 @@
       <c r="J76" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-4 / 24
+15 / 21
 ميس عوده
 12:00-14:00</t>
         </is>
@@ -2799,7 +2799,7 @@
       <c r="F77" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 24
+13 / 14
 ابتهال بشتاوي
 10:00-12:00</t>
         </is>
@@ -2810,7 +2810,7 @@
       <c r="J77" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 3
+13 / 14
 ابتهال بشتاوي
 12:00-14:00</t>
         </is>
@@ -2821,7 +2821,7 @@
       <c r="N77" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 3
+13 / 14
 ابتهال بشتاوي
 14:00-16:00</t>
         </is>
@@ -2834,7 +2834,7 @@
       <c r="H78" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-5 / 7
+22 / 1
 لم يحدد
 11:00-13:00</t>
         </is>
@@ -2845,7 +2845,7 @@
       <c r="L78" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-5 / 7
+1 / 3
 لم يحدد
 13:00-15:00</t>
         </is>
@@ -2856,7 +2856,7 @@
       <c r="P78" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-4 / 5
+1 / 3
 لم يحدد
 15:00-17:00</t>
         </is>
@@ -2869,7 +2869,7 @@
       <c r="H79" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-8 / 9
+3 / 7
 عمر خليل
 11:00-13:00</t>
         </is>
@@ -2880,7 +2880,7 @@
       <c r="L79" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-8 / 9
+7 / 10
 عمر خليل
 13:00-15:00</t>
         </is>
@@ -2891,7 +2891,7 @@
       <c r="P79" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-7 / 8
+7 / 10
 عمر خليل
 15:00-17:00</t>
         </is>
@@ -2904,7 +2904,7 @@
       <c r="H80" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-10 / 19
+10 / 11
 سفيان السعيد
 11:00-13:00</t>
         </is>
@@ -2915,7 +2915,7 @@
       <c r="L80" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-10 / 19
+11 / 22
 حسين هلال
 13:00-15:00</t>
         </is>
@@ -2926,7 +2926,7 @@
       <c r="P80" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-9 / 10
+11 / 15
 سفيان السعيد
 15:00-17:00</t>
         </is>
@@ -2953,7 +2953,7 @@
       <c r="B84" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-26
+27
 لم يحدد
 8:00-10:00</t>
         </is>
@@ -2964,7 +2964,7 @@
       <c r="F84" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-18
+27
 لم يحدد
 10:00-12:00</t>
         </is>
@@ -2975,7 +2975,7 @@
       <c r="J84" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-18
+19
 لم يحدد
 12:00-14:00</t>
         </is>
@@ -2986,7 +2986,7 @@
       <c r="N84" s="32" t="inlineStr">
         <is>
           <t>علم التشريح والأجنة السني/ عملي
-2
+12
 لم يحدد
 14:00-16:00</t>
         </is>
@@ -2999,7 +2999,7 @@
       <c r="B85" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-18
+28
 مجد برهم
 8:00-10:00</t>
         </is>
@@ -3010,7 +3010,7 @@
       <c r="F85" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-26
+28
 مجد برهم
 10:00-12:00</t>
         </is>
@@ -3021,7 +3021,7 @@
       <c r="J85" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-20
+27
 مجد برهم
 12:00-14:00</t>
         </is>
@@ -3032,7 +3032,7 @@
       <c r="N85" s="34" t="inlineStr">
         <is>
           <t>أشعة الوجه والفكين1/ عملي
-18
+19
 مجد برهم
 14:00-16:00</t>
         </is>
@@ -3045,7 +3045,7 @@
       <c r="B86" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-25
+12
 عبد الرحمن مصطفى
 8:00-11:00</t>
         </is>
@@ -3058,7 +3058,7 @@
       <c r="J86" s="30" t="inlineStr">
         <is>
           <t>طب الأسنان التحفظي 1/ عملي
-25
+28
 محمد عامر
 12:00-15:00</t>
         </is>
@@ -3073,7 +3073,7 @@
       <c r="B87" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-2
+19
 نجيب ابو الرب
 8:00-11:00</t>
         </is>
@@ -3086,7 +3086,7 @@
       <c r="H87" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-2
+12
 نجيب ابو الرب
 11:00-14:00</t>
         </is>
@@ -3099,7 +3099,7 @@
       <c r="N87" s="4" t="inlineStr">
         <is>
           <t>إستعاضة سنية متحركة 1/ عملي
-20
+27
 لم يحدد
 14:00-17:00</t>
         </is>
@@ -3121,7 +3121,7 @@
       <c r="B89" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-16 / 22
+20 / 30
 حسني علي
 8:00-10:00</t>
         </is>
@@ -3132,7 +3132,7 @@
       <c r="F89" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-17 / 19
+20 / 21
 حسني علي
 10:00-12:00</t>
         </is>
@@ -3143,7 +3143,7 @@
       <c r="J89" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-5 / 6
+5 / 8
 حسني علي
 12:00-14:00</t>
         </is>
@@ -3154,7 +3154,7 @@
       <c r="N89" s="10" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 4
-3 / 4
+2 / 4
 حسني علي
 14:00-16:00</t>
         </is>
@@ -3167,7 +3167,7 @@
       <c r="B90" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-23 / 17
+8 / 9
 فادي هرش
 8:00-10:00</t>
         </is>
@@ -3178,7 +3178,7 @@
       <c r="F90" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-21 / 22
+22 / 23
 فادي هرش
 10:00-12:00</t>
         </is>
@@ -3189,7 +3189,7 @@
       <c r="J90" s="8" t="inlineStr">
         <is>
           <t>عيادة علم أمراض اللثة 3
-7 / 16
+9 / 20
 فادي هرش
 12:00-14:00</t>
         </is>
@@ -3202,7 +3202,7 @@
       <c r="B91" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-19 / 21
+21 / 22
 ساري دار ديك
 8:00-10:00</t>
         </is>
@@ -3213,7 +3213,7 @@
       <c r="F91" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-23 / 24
+24 / 30
 ساري دار ديك
 10:00-12:00</t>
         </is>
@@ -3224,7 +3224,7 @@
       <c r="J91" s="12" t="inlineStr">
         <is>
           <t>عيادة استعاضة سنية متحركة 4
-17 / 19
+21 / 22
 ساري دار ديك
 12:00-14:00</t>
         </is>
@@ -3237,7 +3237,7 @@
       <c r="B92" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-24 / 3
+23 / 24
 حسين هلال
 8:00-10:00</t>
         </is>
@@ -3248,7 +3248,7 @@
       <c r="F92" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-4 / 5
+26 / 2
 حسين هلال
 10:00-12:00</t>
         </is>
@@ -3259,7 +3259,7 @@
       <c r="J92" s="14" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم والأسنان والفكين 1
-21 / 22
+23 / 24
 حسين هلال
 12:00-14:00</t>
         </is>
@@ -3272,7 +3272,7 @@
       <c r="F93" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-3 / 16
+8 / 9
 رينا عابد
 10:00-12:00</t>
         </is>
@@ -3283,7 +3283,7 @@
       <c r="J93" s="6" t="inlineStr">
         <is>
           <t>عيادة طب أسنان الأطفال 1
-3 / 4
+2 / 4
 رينا عابد
 12:00-14:00</t>
         </is>
@@ -3296,7 +3296,7 @@
       <c r="F94" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-6 / 7
+4 / 5
 حسن حشاش
 10:00-12:00</t>
         </is>
@@ -3307,7 +3307,7 @@
       <c r="J94" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-23 / 24
+26 / 30
 عبد الرحمن مصطفى
 12:00-14:00</t>
         </is>
@@ -3318,7 +3318,7 @@
       <c r="N94" s="16" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 5
-5 / 6
+5 / 8
 عبد الرحمن مصطفى
 14:00-16:00</t>
         </is>
@@ -3338,7 +3338,7 @@
       <c r="B96" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-8 / 9
+6 / 14
 يوسف ساعد
 8:00-10:00</t>
         </is>
@@ -3349,7 +3349,7 @@
       <c r="F96" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-8 / 9
+1 / 6
 يوسف ساعد
 10:00-12:00</t>
         </is>
@@ -3360,7 +3360,7 @@
       <c r="J96" s="26" t="inlineStr">
         <is>
           <t>عيادة مداواة الأسنان اللبية 2 التسجيل من خلال القسم
-1 / 8
+1 / 3
 يوسف ساعد
 12:00-14:00</t>
         </is>
@@ -3373,7 +3373,7 @@
       <c r="B97" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-10 / 11
+15 / 16
 سفيان السعيد
 8:00-10:00</t>
         </is>
@@ -3384,7 +3384,7 @@
       <c r="F97" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-12 / 13
+16 / 17
 سفيان السعيد
 10:00-12:00</t>
         </is>
@@ -3395,7 +3395,7 @@
       <c r="J97" s="28" t="inlineStr">
         <is>
           <t>عيادة جراحة الفم 1 التسجيل من خلال القسم
-11 / 12
+14 / 15
 سفيان السعيد
 12:00-14:00</t>
         </is>
@@ -3408,7 +3408,7 @@
       <c r="B98" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-12 / 13
+17 / 18
 لم يحدد
 8:00-10:00</t>
         </is>
@@ -3419,7 +3419,7 @@
       <c r="F98" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-14 / 15
+18 / 25
 لم يحدد
 10:00-12:00</t>
         </is>
@@ -3430,7 +3430,7 @@
       <c r="J98" s="22" t="inlineStr">
         <is>
           <t>عيادة تشخيص أمراض الفم التسجيل من خلال القسم
-13 / 14
+16 / 17
 لم يحدد
 12:00-14:00</t>
         </is>
@@ -3443,7 +3443,7 @@
       <c r="B99" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-14 / 15
+25 / 1
 عيسى بنورة
 8:00-10:00</t>
         </is>
@@ -3454,7 +3454,7 @@
       <c r="F99" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-1
+3 / 7
 عيسى بنورة
 10:00-12:00</t>
         </is>
@@ -3465,7 +3465,7 @@
       <c r="J99" s="18" t="inlineStr">
         <is>
           <t>عيادة تركيبات سنية 1
-15 / 26
+18 / 25
 عيسى بنورة
 12:00-14:00</t>
         </is>
@@ -3478,7 +3478,7 @@
       <c r="F100" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-10 / 11
+14 / 15
 محمد عامر
 10:00-12:00</t>
         </is>
@@ -3489,7 +3489,7 @@
       <c r="J100" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-9 / 10
+6 / 7
 ابتهال بشتاوي
 12:00-14:00</t>
         </is>
@@ -3500,7 +3500,7 @@
       <c r="N100" s="20" t="inlineStr">
         <is>
           <t>عيادة طب الأسنان التحفظي 3 التسجيل من خلال القسم
-1 / 8
+1 / 3
 ابتهال بشتاوي
 14:00-16:00</t>
         </is>
@@ -3750,7 +3750,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D27"/>
+  <dimension ref="A1:D31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3791,10 +3791,10 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="C2" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" t="n">
         <v>4</v>
@@ -3805,13 +3805,13 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>35</v>
+        <v>30</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>10</v>
       </c>
       <c r="D3" t="n">
-        <v>14</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -3819,10 +3819,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>34</v>
+        <v>30</v>
       </c>
       <c r="C4" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D4" t="n">
         <v>0</v>
@@ -3833,10 +3833,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C5" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
@@ -3847,10 +3847,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C6" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D6" t="n">
         <v>0</v>
@@ -3861,13 +3861,13 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>33</v>
+        <v>28</v>
       </c>
       <c r="C7" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="D7" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -3875,10 +3875,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
@@ -3889,10 +3889,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>34</v>
+        <v>28</v>
       </c>
       <c r="C9" t="n">
-        <v>17</v>
+        <v>14</v>
       </c>
       <c r="D9" t="n">
         <v>0</v>
@@ -3903,10 +3903,10 @@
         <v>9</v>
       </c>
       <c r="B10" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C10" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="D10" t="n">
         <v>0</v>
@@ -3917,10 +3917,10 @@
         <v>10</v>
       </c>
       <c r="B11" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C11" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -3931,10 +3931,10 @@
         <v>11</v>
       </c>
       <c r="B12" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C12" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D12" t="n">
         <v>0</v>
@@ -3945,13 +3945,13 @@
         <v>12</v>
       </c>
       <c r="B13" t="n">
-        <v>32</v>
+        <v>26</v>
       </c>
       <c r="C13" t="n">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="14">
@@ -3959,10 +3959,10 @@
         <v>13</v>
       </c>
       <c r="B14" t="n">
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="C14" t="n">
-        <v>16</v>
+        <v>12</v>
       </c>
       <c r="D14" t="n">
         <v>0</v>
@@ -3973,10 +3973,10 @@
         <v>14</v>
       </c>
       <c r="B15" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C15" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D15" t="n">
         <v>0</v>
@@ -3987,10 +3987,10 @@
         <v>15</v>
       </c>
       <c r="B16" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C16" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="D16" t="n">
         <v>0</v>
@@ -4001,13 +4001,13 @@
         <v>16</v>
       </c>
       <c r="B17" t="n">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C17" t="n">
-        <v>7</v>
+        <v>14</v>
       </c>
       <c r="D17" t="n">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="18">
@@ -4015,10 +4015,10 @@
         <v>17</v>
       </c>
       <c r="B18" t="n">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="C18" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D18" t="n">
         <v>0</v>
@@ -4029,13 +4029,13 @@
         <v>18</v>
       </c>
       <c r="B19" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C19" t="n">
-        <v>8</v>
+        <v>14</v>
       </c>
       <c r="D19" t="n">
-        <v>6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="20">
@@ -4043,13 +4043,13 @@
         <v>19</v>
       </c>
       <c r="B20" t="n">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C20" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D20" t="n">
-        <v>0</v>
+        <v>3</v>
       </c>
     </row>
     <row r="21">
@@ -4057,13 +4057,13 @@
         <v>20</v>
       </c>
       <c r="B21" t="n">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="C21" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="D21" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
     </row>
     <row r="22">
@@ -4071,10 +4071,10 @@
         <v>21</v>
       </c>
       <c r="B22" t="n">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C22" t="n">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="D22" t="n">
         <v>0</v>
@@ -4085,10 +4085,10 @@
         <v>22</v>
       </c>
       <c r="B23" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C23" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="D23" t="n">
         <v>0</v>
@@ -4099,13 +4099,13 @@
         <v>23</v>
       </c>
       <c r="B24" t="n">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="C24" t="n">
-        <v>14</v>
+        <v>9</v>
       </c>
       <c r="D24" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="25">
@@ -4113,13 +4113,13 @@
         <v>24</v>
       </c>
       <c r="B25" t="n">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="C25" t="n">
-        <v>15</v>
+        <v>9</v>
       </c>
       <c r="D25" t="n">
-        <v>0</v>
+        <v>4</v>
       </c>
     </row>
     <row r="26">
@@ -4127,13 +4127,13 @@
         <v>25</v>
       </c>
       <c r="B26" t="n">
-        <v>27</v>
+        <v>29</v>
       </c>
       <c r="C26" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="D26" t="n">
-        <v>12</v>
+        <v>7</v>
       </c>
     </row>
     <row r="27">
@@ -4141,13 +4141,69 @@
         <v>26</v>
       </c>
       <c r="B27" t="n">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C27" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="D27" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" t="n">
+        <v>27</v>
+      </c>
+      <c r="B28" t="n">
+        <v>28</v>
+      </c>
+      <c r="C28" t="n">
+        <v>0</v>
+      </c>
+      <c r="D28" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" t="n">
+        <v>28</v>
+      </c>
+      <c r="B29" t="n">
+        <v>25</v>
+      </c>
+      <c r="C29" t="n">
+        <v>6</v>
+      </c>
+      <c r="D29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" t="n">
+        <v>29</v>
+      </c>
+      <c r="B30" t="n">
+        <v>20</v>
+      </c>
+      <c r="C30" t="n">
+        <v>7</v>
+      </c>
+      <c r="D30" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" t="n">
+        <v>30</v>
+      </c>
+      <c r="B31" t="n">
+        <v>25</v>
+      </c>
+      <c r="C31" t="n">
+        <v>11</v>
+      </c>
+      <c r="D31" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
